--- a/原创-应用安全/应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="260">
   <si>
     <t>应用生命周期</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>安全意识培训、法律科普</t>
+  </si>
+  <si>
+    <t>密钥</t>
+  </si>
+  <si>
+    <t>阿里KMS服务</t>
   </si>
   <si>
     <t>监控审计</t>
@@ -1910,13 +1916,13 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="16.7314814814815" customWidth="1"/>
+    <col min="1" max="2" width="16.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2068,7 +2074,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="29" ht="259.2" spans="1:1">
+    <row r="29" ht="218" spans="1:1">
       <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
@@ -2088,39 +2094,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2139,11 +2145,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2203,10 +2209,10 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2383,11 +2389,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2629,11 +2635,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2864,11 +2870,11 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2884,7 +2890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:4">
+    <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -2919,7 +2925,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="129.6" spans="1:5">
+    <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>105</v>
@@ -3059,7 +3065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:3">
+    <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>115</v>
@@ -3123,7 +3129,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28.8" spans="1:4">
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>126</v>
       </c>
@@ -3257,20 +3263,20 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73148148148148" style="1"/>
-    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.73148148148148" style="1"/>
+    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="1"/>
+    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:9">
+    <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>155</v>
@@ -3349,7 +3355,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:6">
+    <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:6">
+    <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>163</v>
@@ -3381,7 +3387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:6">
+    <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>98</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:6">
+    <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>170</v>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>181</v>
@@ -3464,7 +3470,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>185</v>
@@ -3481,7 +3487,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="43.2" spans="1:6">
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>186</v>
@@ -3496,7 +3502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -3541,7 +3547,7 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28.8" spans="1:6">
+    <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:5">
+    <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>197</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
+    <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>134</v>
       </c>
@@ -3644,7 +3650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" ht="28.8" spans="1:5">
+    <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>136</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:4">
+    <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>209</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:1">
+    <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>212</v>
       </c>
@@ -3690,17 +3696,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3737,7 +3743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:3">
+    <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>155</v>
@@ -3757,7 +3763,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:3">
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>163</v>
@@ -3815,7 +3821,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:3">
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>223</v>
@@ -3833,7 +3839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:3">
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>113</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:3">
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>136</v>
       </c>
@@ -3906,6 +3912,14 @@
       </c>
       <c r="C29" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3933,12 +3947,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3949,7 +3963,7 @@
         <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3960,21 +3974,21 @@
         <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3985,7 +3999,7 @@
         <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3994,7 +4008,7 @@
         <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4005,7 +4019,7 @@
         <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4014,7 +4028,7 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4037,7 @@
         <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4034,7 +4048,7 @@
         <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4043,7 +4057,7 @@
         <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4052,7 +4066,7 @@
         <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4061,7 +4075,7 @@
         <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4072,7 +4086,7 @@
         <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4081,7 +4095,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4092,10 +4106,10 @@
         <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4106,7 +4120,7 @@
         <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4117,10 +4131,10 @@
         <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4131,7 +4145,7 @@
         <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4142,7 +4156,7 @@
         <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -23,18 +23,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="261">
   <si>
     <t>应用生命周期</t>
   </si>
   <si>
-    <t>应用安全内容</t>
+    <t>应用安全项</t>
+  </si>
+  <si>
+    <t>立项前</t>
+  </si>
+  <si>
+    <t>安全培训</t>
   </si>
   <si>
     <t>立项后</t>
-  </si>
-  <si>
-    <t>安全培训</t>
   </si>
   <si>
     <t>需求梳理阶段</t>
@@ -1914,18 +1917,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="16.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" customFormat="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" customFormat="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1946,26 +1950,29 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1975,15 +1982,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1995,12 +2002,12 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -2008,28 +2015,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -2039,21 +2046,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3"/>
@@ -2061,9 +2065,10 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
@@ -2074,9 +2079,16 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="29" ht="218" spans="1:1">
-      <c r="A29" s="10" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="30" ht="259.2" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2094,39 +2106,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2145,53 +2157,53 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2209,35 +2221,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:2">
       <c r="A3" s="9"/>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2255,27 +2267,27 @@
     <row r="9" spans="1:2">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10"/>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2286,89 +2298,89 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2389,42 +2401,42 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2635,28 +2647,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2870,82 +2882,82 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28" spans="1:4">
+    <row r="6" ht="28.8" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2953,10 +2965,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2964,13 +2976,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2983,95 +2995,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" ht="126" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" ht="129.6" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1"/>
     <row r="19" s="8" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -3079,43 +3091,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -3129,24 +3141,24 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28" spans="1:4">
+    <row r="30" ht="28.8" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3155,16 +3167,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -3179,10 +3191,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3194,10 +3206,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3219,24 +3231,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3263,278 +3275,278 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="1"/>
-    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73148148148148" style="1"/>
+    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:9">
+    <row r="1" ht="28.8" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" ht="42" spans="1:6">
+    </row>
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" ht="28" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="42" spans="1:6">
+    <row r="16" ht="43.2" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3547,137 +3559,137 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28" spans="1:6">
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" ht="28" spans="1:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" ht="28" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" ht="28" spans="1:1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3698,228 +3710,228 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" ht="28" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" ht="28" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3947,216 +3959,216 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -23,35 +23,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="261">
-  <si>
-    <t>应用生命周期</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
+  <si>
+    <t>产品节点</t>
+  </si>
+  <si>
+    <t>安全管理</t>
   </si>
   <si>
     <t>应用安全项</t>
   </si>
   <si>
-    <t>立项前</t>
-  </si>
-  <si>
-    <t>安全培训</t>
-  </si>
-  <si>
-    <t>立项后</t>
+    <t>系统支持</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>立项阶段（经过市场调研等，决策层觉得想法可行）</t>
+  </si>
+  <si>
+    <t>应当有立项流程，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。</t>
+  </si>
+  <si>
+    <t>在各团队中确认安全对接人。分别给各角色进行相关安全培训。建立信息互通机制，按产品节点进行安全建设</t>
+  </si>
+  <si>
+    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
+  </si>
+  <si>
+    <t>功能设计阶段</t>
+  </si>
+  <si>
+    <t>安全需求</t>
+  </si>
+  <si>
+    <t>可建设SDL系统，内置常见功能项，让开发选择，选择后自动生成需求表给开发。</t>
+  </si>
+  <si>
+    <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
+  </si>
+  <si>
+    <t>开发架构阶段</t>
+  </si>
+  <si>
+    <t>安全评估</t>
   </si>
   <si>
     <t>需求梳理阶段</t>
   </si>
   <si>
-    <t>安全需求</t>
-  </si>
-  <si>
     <t>架构及设计阶段</t>
   </si>
   <si>
-    <t>安全评估</t>
-  </si>
-  <si>
     <t>开发阶段</t>
   </si>
   <si>
@@ -119,13 +143,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">应当有申请系统，申请系统串联 </t>
+      <t xml:space="preserve">服务器申请，应当有申请系统，申请系统串联 </t>
     </r>
     <r>
       <rPr>
@@ -210,6 +228,12 @@
     <t>随堂测试</t>
   </si>
   <si>
+    <t>针对产品的培训</t>
+  </si>
+  <si>
+    <t>为什么需要安全评估，安全需求</t>
+  </si>
+  <si>
     <t>针对开发的培训</t>
   </si>
   <si>
@@ -225,102 +249,24 @@
     <t>为什么需要安全测试，两者的区别</t>
   </si>
   <si>
-    <t>针对产品的培训</t>
-  </si>
-  <si>
-    <t>为什么需要安全评估，安全需求</t>
-  </si>
-  <si>
-    <t>安全需求分类</t>
-  </si>
-  <si>
-    <t>保密性需求</t>
-  </si>
-  <si>
-    <t>数据脱敏</t>
-  </si>
-  <si>
-    <t>数据加密</t>
-  </si>
-  <si>
-    <t>传输过程中安全</t>
-  </si>
-  <si>
-    <t>完整性校验</t>
-  </si>
-  <si>
-    <t>完整性需求</t>
-  </si>
-  <si>
-    <t>设计架构等图完整</t>
-  </si>
-  <si>
-    <t>接口功能等文档完整</t>
-  </si>
-  <si>
-    <t>灾备</t>
-  </si>
-  <si>
-    <t>| 完整性 | 保护数据不被篡改 | 数字签名、数据校验、访问控制等 |</t>
-  </si>
-  <si>
-    <t>可用性需求</t>
-  </si>
-  <si>
-    <t>使用高可用架构，有负载均衡、限流等措施</t>
-  </si>
-  <si>
-    <t>可认证需求</t>
-  </si>
-  <si>
-    <t>安全的认知体系，无法被破解，爆破，篡改</t>
-  </si>
-  <si>
-    <t>授权需求</t>
-  </si>
-  <si>
-    <t>细粒度的访问控制授权，对外的接口授权</t>
-  </si>
-  <si>
-    <t>可审计性需求</t>
-  </si>
-  <si>
-    <t>日志链路完整，格式统一，可解析</t>
-  </si>
-  <si>
-    <t>有审计功能，能对系统使用人的行为进行审计</t>
-  </si>
-  <si>
-    <t>合规性需求</t>
-  </si>
-  <si>
-    <t>按等保/GDPR/法律法规条目检查</t>
-  </si>
-  <si>
-    <t>可扩展，有对外接口</t>
-  </si>
-  <si>
-    <t>方便以后进行二次开发</t>
-  </si>
-  <si>
-    <t>安全意识</t>
-  </si>
-  <si>
-    <t>安全管理</t>
-  </si>
-  <si>
-    <t>安全开发</t>
-  </si>
-  <si>
-    <t>产品功能及业务的了解，然后根据这些分解出对应的他们的潜在安全需求，并摆到明面上</t>
-  </si>
-  <si>
-    <t>物理安全需求</t>
+    <t>针对运维的培训</t>
+  </si>
+  <si>
+    <t>见安全需求表</t>
+  </si>
+  <si>
+    <t>评估项</t>
+  </si>
+  <si>
+    <t>评估内容</t>
   </si>
   <si>
     <t>安全需求确认</t>
   </si>
   <si>
+    <t>开发签字确认接收了安全需求表</t>
+  </si>
+  <si>
     <t>开发技术选型</t>
   </si>
   <si>
@@ -330,7 +276,7 @@
     <t>应用网络拓扑</t>
   </si>
   <si>
-    <t>负载均衡，网关，路由，数据库等拓扑评估</t>
+    <t>负载均衡，网关，路由，数据库等拓扑评估。4层防御或七层防御或不上防护功能</t>
   </si>
   <si>
     <t>CICD工作流环境评估</t>
@@ -339,6 +285,12 @@
     <t>内外网，权限等</t>
   </si>
   <si>
+    <t>应用发布流评估</t>
+  </si>
+  <si>
+    <t>见安全评估表</t>
+  </si>
+  <si>
     <t>技术方案只有零信任</t>
   </si>
   <si>
@@ -535,9 +487,6 @@
   </si>
   <si>
     <t>梳理方法</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>服务器</t>
@@ -926,18 +875,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1532,7 +1481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1560,14 +1509,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1917,179 +1869,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="2" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.4545454545455" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.3636363636364" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="112" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="3" ht="56" spans="1:5">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:3">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" t="s">
+      <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="30" ht="259.2" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="98" spans="1:2">
+      <c r="A34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="378" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="140" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="126" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="41" ht="204.5" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2106,39 +2157,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2151,59 +2202,64 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2215,178 +2271,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10"/>
-      <c r="B12" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2395,48 +2297,69 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2647,28 +2570,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2882,82 +2805,82 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2965,10 +2888,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2976,13 +2899,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2995,95 +2918,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" ht="129.6" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1"/>
     <row r="19" s="8" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -3091,43 +3014,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -3141,24 +3064,24 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28.8" spans="1:4">
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3167,16 +3090,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -3191,10 +3114,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3206,10 +3129,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3231,24 +3154,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3275,278 +3198,278 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73148148148148" style="1"/>
-    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.73148148148148" style="1"/>
+    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="1"/>
+    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:9">
+    <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" ht="43.2" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="43.2" spans="1:6">
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3559,137 +3482,137 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28.8" spans="1:6">
+    <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" ht="28.8" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" ht="28.8" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3714,224 +3637,224 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" ht="28.8" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3959,216 +3882,216 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/原创-应用安全/应用安全方案-持续更新.xlsx
+++ b/原创-应用安全/应用安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="250">
   <si>
     <t>产品节点</t>
   </si>
@@ -40,7 +40,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>立项阶段（经过市场调研等，决策层觉得想法可行）</t>
+    <t>应用发现</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>统一的应用管理系统</t>
+  </si>
+  <si>
+    <t>可通过技术手段在应用商城进行发现。应用发现意味着此应用已经发布，首先要对它进行安全干预。</t>
+  </si>
+  <si>
+    <t>立项阶段</t>
   </si>
   <si>
     <t>应当有立项流程，流程中确定产品经理，开发团队，测试团队，运维团队，开发周期及时间等。安全应当能知道以上信息。</t>
@@ -143,6 +155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">服务器申请，应当有申请系统，申请系统串联 </t>
     </r>
     <r>
@@ -1481,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,9 +1531,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1869,10 +1884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1900,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="112" spans="1:4">
+    <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1908,239 +1923,202 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="56" spans="1:5">
+    <row r="3" customFormat="1" ht="98" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" ht="56" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="9"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="42" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" ht="42" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" ht="98" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="378" spans="1:6">
-      <c r="A35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="140" spans="1:6">
-      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="98" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="378" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="84" spans="1:6">
-      <c r="A37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+    <row r="37" s="1" customFormat="1" ht="140" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="126" spans="1:6">
-      <c r="A38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+    <row r="38" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="41" ht="204.5" spans="1:2">
-      <c r="A41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12"/>
+    <row r="39" s="1" customFormat="1" ht="126" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="42" ht="204.5" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2161,35 +2139,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2183,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2217,49 +2195,49 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +2252,7 @@
   <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -2285,7 +2263,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2277,7 @@
   <sheetPr/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2314,52 +2292,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2581,17 +2559,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2801,7 +2779,7 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2816,45 +2794,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2862,25 +2840,25 @@
     </row>
     <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2888,10 +2866,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2899,13 +2877,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2918,95 +2896,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1"/>
     <row r="19" s="8" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -3014,43 +2992,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -3066,22 +3044,22 @@
     </row>
     <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3090,16 +3068,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -3114,10 +3092,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3129,10 +3107,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3154,24 +3132,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3213,22 +3191,22 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -3236,240 +3214,240 @@
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3484,116 +3462,116 @@
     </row>
     <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>1</v>
@@ -3601,18 +3579,18 @@
     </row>
     <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3646,215 +3624,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3892,206 +3870,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
